--- a/sat_bin_python/result_log/结果统计.xlsx
+++ b/sat_bin_python/result_log/结果统计.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机分割" sheetId="1" r:id="rId1"/>
-    <sheet name="动态选择" sheetId="2" r:id="rId2"/>
+    <sheet name="动态选择bin+var" sheetId="2" r:id="rId2"/>
+    <sheet name="动态分解" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
   <si>
     <t>c16 v32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +451,120 @@
   </si>
   <si>
     <t>uf50-01~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_load         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_update       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_across_bkt   </t>
+  </si>
+  <si>
+    <t>cnt_gbkt_visit_vs</t>
+  </si>
+  <si>
+    <t>cnt_gbkt_clear_vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_decision     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_bcp          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_cur_bkt      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_analysis     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt_learntc      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_bins         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_clauses      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_vars         </t>
+  </si>
+  <si>
+    <t>根据变量出现次数</t>
+  </si>
+  <si>
+    <t>设置初始变量act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始act为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf20-01~uf20-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bin_cmax             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bin_vmax             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_cmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_vars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_vmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_clauses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置初始变量和子句act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf50-01~uf50-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf100-01~uf100-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf50-01~uf50-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_cmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当bin大小64时，存在time out的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,8 +597,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,8 +618,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -529,16 +658,214 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,12 +875,106 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2503,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2531,21 +2952,21 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2809,11 +3230,11 @@
       <c r="M10">
         <v>2404</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11">
@@ -5969,4 +6390,1590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="8">
+        <v>91</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="8">
+        <v>218</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="8">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="8">
+        <v>50</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="8">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="34">
+        <v>8</v>
+      </c>
+      <c r="H4" s="32">
+        <v>16</v>
+      </c>
+      <c r="I4" s="32">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="34">
+        <v>8</v>
+      </c>
+      <c r="H5" s="32">
+        <v>16</v>
+      </c>
+      <c r="I5" s="32">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>652.65</v>
+      </c>
+      <c r="D8">
+        <v>535.14</v>
+      </c>
+      <c r="E8">
+        <v>248.26</v>
+      </c>
+      <c r="G8">
+        <v>248.26</v>
+      </c>
+      <c r="H8">
+        <v>120.88</v>
+      </c>
+      <c r="I8">
+        <v>117.77</v>
+      </c>
+      <c r="L8">
+        <v>3625.3</v>
+      </c>
+      <c r="M8">
+        <v>2402.1</v>
+      </c>
+      <c r="N8">
+        <v>11423.5</v>
+      </c>
+      <c r="P8">
+        <v>7137.6</v>
+      </c>
+      <c r="Q8">
+        <v>2438.5</v>
+      </c>
+      <c r="R8">
+        <v>3193.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9">
+        <v>651.65</v>
+      </c>
+      <c r="D9">
+        <v>534.14</v>
+      </c>
+      <c r="E9">
+        <v>247.26</v>
+      </c>
+      <c r="G9">
+        <v>247.26</v>
+      </c>
+      <c r="H9">
+        <v>119.88</v>
+      </c>
+      <c r="I9">
+        <v>116.77</v>
+      </c>
+      <c r="L9">
+        <v>3624.3</v>
+      </c>
+      <c r="M9">
+        <v>2401.1</v>
+      </c>
+      <c r="N9">
+        <v>11422.5</v>
+      </c>
+      <c r="P9">
+        <v>7136.6</v>
+      </c>
+      <c r="Q9">
+        <v>2437.5</v>
+      </c>
+      <c r="R9">
+        <v>3192.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10">
+        <v>87.16</v>
+      </c>
+      <c r="D10">
+        <v>67.63</v>
+      </c>
+      <c r="E10">
+        <v>28.72</v>
+      </c>
+      <c r="G10">
+        <v>28.72</v>
+      </c>
+      <c r="H10">
+        <v>42.23</v>
+      </c>
+      <c r="I10">
+        <v>55.89</v>
+      </c>
+      <c r="L10">
+        <v>264.8</v>
+      </c>
+      <c r="M10">
+        <v>412.1</v>
+      </c>
+      <c r="N10">
+        <v>5498.8</v>
+      </c>
+      <c r="P10">
+        <v>517.70000000000005</v>
+      </c>
+      <c r="Q10">
+        <v>408</v>
+      </c>
+      <c r="R10">
+        <v>1378.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <v>1743.2</v>
+      </c>
+      <c r="D11">
+        <v>1352.6</v>
+      </c>
+      <c r="E11">
+        <v>574.4</v>
+      </c>
+      <c r="G11">
+        <v>574.4</v>
+      </c>
+      <c r="H11">
+        <v>844.6</v>
+      </c>
+      <c r="I11">
+        <v>1117.8</v>
+      </c>
+      <c r="L11">
+        <v>13240</v>
+      </c>
+      <c r="M11">
+        <v>20605</v>
+      </c>
+      <c r="N11">
+        <v>274940</v>
+      </c>
+      <c r="P11">
+        <v>25885</v>
+      </c>
+      <c r="Q11">
+        <v>20400</v>
+      </c>
+      <c r="R11">
+        <v>68915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>460.3</v>
+      </c>
+      <c r="D12">
+        <v>363.11</v>
+      </c>
+      <c r="E12">
+        <v>152.94999999999999</v>
+      </c>
+      <c r="G12">
+        <v>152.94999999999999</v>
+      </c>
+      <c r="H12">
+        <v>195.7</v>
+      </c>
+      <c r="I12">
+        <v>255.44</v>
+      </c>
+      <c r="L12">
+        <v>1999</v>
+      </c>
+      <c r="M12">
+        <v>2857.4</v>
+      </c>
+      <c r="N12">
+        <v>20350.599999999999</v>
+      </c>
+      <c r="P12">
+        <v>4114.3</v>
+      </c>
+      <c r="Q12">
+        <v>3000.4</v>
+      </c>
+      <c r="R12">
+        <v>8752.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13">
+        <v>728.86</v>
+      </c>
+      <c r="D13">
+        <v>599.61</v>
+      </c>
+      <c r="E13">
+        <v>271.92</v>
+      </c>
+      <c r="G13">
+        <v>271.92</v>
+      </c>
+      <c r="H13">
+        <v>152.03</v>
+      </c>
+      <c r="I13">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="L13">
+        <v>4072.6</v>
+      </c>
+      <c r="M13">
+        <v>3097.3</v>
+      </c>
+      <c r="N13">
+        <v>14957.6</v>
+      </c>
+      <c r="P13">
+        <v>8157.5</v>
+      </c>
+      <c r="Q13">
+        <v>3236.7</v>
+      </c>
+      <c r="R13">
+        <v>6652.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>818.56</v>
+      </c>
+      <c r="D14">
+        <v>668.73</v>
+      </c>
+      <c r="E14">
+        <v>301.23</v>
+      </c>
+      <c r="G14">
+        <v>301.23</v>
+      </c>
+      <c r="H14">
+        <v>195.56</v>
+      </c>
+      <c r="I14">
+        <v>215.26</v>
+      </c>
+      <c r="L14">
+        <v>4342.8</v>
+      </c>
+      <c r="M14">
+        <v>3518.8</v>
+      </c>
+      <c r="N14">
+        <v>20461.7</v>
+      </c>
+      <c r="P14">
+        <v>8684.4</v>
+      </c>
+      <c r="Q14">
+        <v>3653.4</v>
+      </c>
+      <c r="R14">
+        <v>8036.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1.49</v>
+      </c>
+      <c r="E15">
+        <v>0.59</v>
+      </c>
+      <c r="G15">
+        <v>0.59</v>
+      </c>
+      <c r="H15">
+        <v>1.3</v>
+      </c>
+      <c r="I15">
+        <v>2.17</v>
+      </c>
+      <c r="L15">
+        <v>5.4</v>
+      </c>
+      <c r="M15">
+        <v>9.4</v>
+      </c>
+      <c r="N15">
+        <v>5.3</v>
+      </c>
+      <c r="P15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R15">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16">
+        <v>89.7</v>
+      </c>
+      <c r="D16">
+        <v>69.12</v>
+      </c>
+      <c r="E16">
+        <v>29.31</v>
+      </c>
+      <c r="G16">
+        <v>29.31</v>
+      </c>
+      <c r="H16">
+        <v>43.53</v>
+      </c>
+      <c r="I16">
+        <v>58.06</v>
+      </c>
+      <c r="L16">
+        <v>270.2</v>
+      </c>
+      <c r="M16">
+        <v>421.5</v>
+      </c>
+      <c r="N16">
+        <v>5504.1</v>
+      </c>
+      <c r="P16">
+        <v>526.9</v>
+      </c>
+      <c r="Q16">
+        <v>416.7</v>
+      </c>
+      <c r="R16">
+        <v>1383.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>7.22</v>
+      </c>
+      <c r="D17">
+        <v>5.65</v>
+      </c>
+      <c r="E17">
+        <v>2.21</v>
+      </c>
+      <c r="G17">
+        <v>2.21</v>
+      </c>
+      <c r="H17">
+        <v>5.18</v>
+      </c>
+      <c r="I17">
+        <v>4.99</v>
+      </c>
+      <c r="L17">
+        <v>16.7</v>
+      </c>
+      <c r="M17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N17">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="P17">
+        <v>35.6</v>
+      </c>
+      <c r="Q17">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="R17">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="D18">
+        <v>32.82</v>
+      </c>
+      <c r="E18">
+        <v>30.09</v>
+      </c>
+      <c r="G18">
+        <v>30.09</v>
+      </c>
+      <c r="H18">
+        <v>8.98</v>
+      </c>
+      <c r="I18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L18">
+        <v>89.6</v>
+      </c>
+      <c r="M18">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>12.9</v>
+      </c>
+      <c r="P18">
+        <v>94.5</v>
+      </c>
+      <c r="Q18">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R18">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19">
+        <v>388.91399999999999</v>
+      </c>
+      <c r="D19">
+        <v>319.95100000000002</v>
+      </c>
+      <c r="E19">
+        <v>154.50700000000001</v>
+      </c>
+      <c r="G19">
+        <v>154.50700000000001</v>
+      </c>
+      <c r="H19">
+        <v>88.348399999999998</v>
+      </c>
+      <c r="I19">
+        <v>116.11</v>
+      </c>
+      <c r="L19">
+        <v>2021.92</v>
+      </c>
+      <c r="M19">
+        <v>1317.89</v>
+      </c>
+      <c r="N19">
+        <v>10045.1</v>
+      </c>
+      <c r="P19">
+        <v>3815.27</v>
+      </c>
+      <c r="Q19">
+        <v>1294.19</v>
+      </c>
+      <c r="R19">
+        <v>1916.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="15">
+        <v>430</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" s="8">
+        <v>218</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="15">
+        <v>100</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="8">
+        <v>50</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="28">
+        <v>8</v>
+      </c>
+      <c r="D24" s="28">
+        <v>16</v>
+      </c>
+      <c r="E24" s="28">
+        <v>32</v>
+      </c>
+      <c r="F24" s="28">
+        <v>64</v>
+      </c>
+      <c r="G24" s="14">
+        <v>8</v>
+      </c>
+      <c r="H24" s="14">
+        <v>16</v>
+      </c>
+      <c r="I24" s="14">
+        <v>32</v>
+      </c>
+      <c r="J24" s="14">
+        <v>64</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="32">
+        <v>8</v>
+      </c>
+      <c r="M24" s="32">
+        <v>16</v>
+      </c>
+      <c r="N24" s="32">
+        <v>32</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>16</v>
+      </c>
+      <c r="R24" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="28">
+        <v>8</v>
+      </c>
+      <c r="D25" s="28">
+        <v>16</v>
+      </c>
+      <c r="E25" s="28">
+        <v>32</v>
+      </c>
+      <c r="F25" s="28">
+        <v>64</v>
+      </c>
+      <c r="G25" s="14">
+        <v>8</v>
+      </c>
+      <c r="H25" s="14">
+        <v>16</v>
+      </c>
+      <c r="I25" s="14">
+        <v>32</v>
+      </c>
+      <c r="J25" s="14">
+        <v>64</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="32">
+        <v>8</v>
+      </c>
+      <c r="M25" s="32">
+        <v>16</v>
+      </c>
+      <c r="N25" s="32">
+        <v>32</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>16</v>
+      </c>
+      <c r="R25" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="14"/>
+      <c r="C26" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="14"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="L27">
+        <v>4566.74</v>
+      </c>
+      <c r="M27">
+        <v>1823.16</v>
+      </c>
+      <c r="N27">
+        <v>4435.08</v>
+      </c>
+      <c r="P27">
+        <v>7260.61</v>
+      </c>
+      <c r="Q27">
+        <v>2781.76</v>
+      </c>
+      <c r="R27">
+        <v>30070.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="17">
+        <v>20221.900000000001</v>
+      </c>
+      <c r="D28" s="21">
+        <v>6354.4</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5934.3</v>
+      </c>
+      <c r="F28" s="22">
+        <v>166304</v>
+      </c>
+      <c r="G28" s="17">
+        <v>32651.599999999999</v>
+      </c>
+      <c r="H28" s="21">
+        <v>12060.8</v>
+      </c>
+      <c r="I28" s="21">
+        <v>5934.3</v>
+      </c>
+      <c r="J28" s="22">
+        <v>161930</v>
+      </c>
+      <c r="L28">
+        <v>4565.74</v>
+      </c>
+      <c r="M28">
+        <v>1822.16</v>
+      </c>
+      <c r="N28">
+        <v>4434.08</v>
+      </c>
+      <c r="P28">
+        <v>7259.61</v>
+      </c>
+      <c r="Q28">
+        <v>2780.76</v>
+      </c>
+      <c r="R28">
+        <v>30069.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="23">
+        <v>20220.900000000001</v>
+      </c>
+      <c r="D29" s="24">
+        <v>6353.4</v>
+      </c>
+      <c r="E29" s="24">
+        <v>5933.3</v>
+      </c>
+      <c r="F29" s="25">
+        <v>166303</v>
+      </c>
+      <c r="G29" s="23">
+        <v>32650.6</v>
+      </c>
+      <c r="H29" s="24">
+        <v>12059.8</v>
+      </c>
+      <c r="I29" s="24">
+        <v>5933.3</v>
+      </c>
+      <c r="J29" s="25">
+        <v>161930</v>
+      </c>
+      <c r="L29">
+        <v>335.8</v>
+      </c>
+      <c r="M29">
+        <v>322.06</v>
+      </c>
+      <c r="N29">
+        <v>2087.09</v>
+      </c>
+      <c r="P29">
+        <v>533.20000000000005</v>
+      </c>
+      <c r="Q29">
+        <v>489.69</v>
+      </c>
+      <c r="R29">
+        <v>13902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="23">
+        <v>926.6</v>
+      </c>
+      <c r="D30" s="24">
+        <v>675.8</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1990.8</v>
+      </c>
+      <c r="F30" s="25">
+        <v>83032.399999999994</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1494.2</v>
+      </c>
+      <c r="H30" s="24">
+        <v>1300.7</v>
+      </c>
+      <c r="I30" s="24">
+        <v>1990.8</v>
+      </c>
+      <c r="J30" s="25">
+        <v>80847.199999999997</v>
+      </c>
+      <c r="L30">
+        <v>16790</v>
+      </c>
+      <c r="M30">
+        <v>16103</v>
+      </c>
+      <c r="N30">
+        <v>104354</v>
+      </c>
+      <c r="P30">
+        <v>26660</v>
+      </c>
+      <c r="Q30">
+        <v>24484.5</v>
+      </c>
+      <c r="R30">
+        <v>695098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="23">
+        <v>92660</v>
+      </c>
+      <c r="D31" s="24">
+        <v>67580</v>
+      </c>
+      <c r="E31" s="24">
+        <v>199080</v>
+      </c>
+      <c r="F31" s="25">
+        <v>8303240</v>
+      </c>
+      <c r="G31" s="23">
+        <v>149420</v>
+      </c>
+      <c r="H31" s="24">
+        <v>130070</v>
+      </c>
+      <c r="I31" s="24">
+        <v>199080</v>
+      </c>
+      <c r="J31" s="25">
+        <v>8084720</v>
+      </c>
+      <c r="L31">
+        <v>2548.54</v>
+      </c>
+      <c r="M31">
+        <v>2213.62</v>
+      </c>
+      <c r="N31">
+        <v>9161.2999999999993</v>
+      </c>
+      <c r="P31">
+        <v>4242.1400000000003</v>
+      </c>
+      <c r="Q31">
+        <v>3481.61</v>
+      </c>
+      <c r="R31">
+        <v>60031.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="23">
+        <v>9741.7000000000007</v>
+      </c>
+      <c r="D32" s="24">
+        <v>6271.3</v>
+      </c>
+      <c r="E32" s="24">
+        <v>13927.7</v>
+      </c>
+      <c r="F32" s="25">
+        <v>469896</v>
+      </c>
+      <c r="G32" s="23">
+        <v>16772.400000000001</v>
+      </c>
+      <c r="H32" s="24">
+        <v>13006.3</v>
+      </c>
+      <c r="I32" s="24">
+        <v>13927.7</v>
+      </c>
+      <c r="J32" s="25">
+        <v>459300</v>
+      </c>
+      <c r="L32">
+        <v>5145.95</v>
+      </c>
+      <c r="M32">
+        <v>2370.33</v>
+      </c>
+      <c r="N32">
+        <v>6533.3</v>
+      </c>
+      <c r="P32">
+        <v>8316.5300000000007</v>
+      </c>
+      <c r="Q32">
+        <v>3708.39</v>
+      </c>
+      <c r="R32">
+        <v>42993.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="23">
+        <v>22999.8</v>
+      </c>
+      <c r="D33" s="24">
+        <v>8270.6</v>
+      </c>
+      <c r="E33" s="24">
+        <v>10771.4</v>
+      </c>
+      <c r="F33" s="25">
+        <v>364507</v>
+      </c>
+      <c r="G33" s="23">
+        <v>37951.5</v>
+      </c>
+      <c r="H33" s="24">
+        <v>16551.8</v>
+      </c>
+      <c r="I33" s="24">
+        <v>10771.4</v>
+      </c>
+      <c r="J33" s="25">
+        <v>354949</v>
+      </c>
+      <c r="L33">
+        <v>5488.47</v>
+      </c>
+      <c r="M33">
+        <v>2699.68</v>
+      </c>
+      <c r="N33">
+        <v>8627.68</v>
+      </c>
+      <c r="P33">
+        <v>8859.32</v>
+      </c>
+      <c r="Q33">
+        <v>4208.76</v>
+      </c>
+      <c r="R33">
+        <v>56921.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="23">
+        <v>23940.9</v>
+      </c>
+      <c r="D34" s="24">
+        <v>8960.7999999999993</v>
+      </c>
+      <c r="E34" s="24">
+        <v>12774.7</v>
+      </c>
+      <c r="F34" s="25">
+        <v>447546</v>
+      </c>
+      <c r="G34" s="23">
+        <v>39465.1</v>
+      </c>
+      <c r="H34" s="24">
+        <v>17873.3</v>
+      </c>
+      <c r="I34" s="24">
+        <v>12774.7</v>
+      </c>
+      <c r="J34" s="25">
+        <v>435802</v>
+      </c>
+      <c r="L34">
+        <v>6.72</v>
+      </c>
+      <c r="M34">
+        <v>7.29</v>
+      </c>
+      <c r="N34">
+        <v>7.29</v>
+      </c>
+      <c r="P34">
+        <v>9.59</v>
+      </c>
+      <c r="Q34">
+        <v>10.68</v>
+      </c>
+      <c r="R34">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="D35" s="24">
+        <v>14.4</v>
+      </c>
+      <c r="E35" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="F35" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="G35" s="23">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H35" s="24">
+        <v>20.8</v>
+      </c>
+      <c r="I35" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="J35" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="L35">
+        <v>342.52</v>
+      </c>
+      <c r="M35">
+        <v>329.35</v>
+      </c>
+      <c r="N35">
+        <v>2094.38</v>
+      </c>
+      <c r="P35">
+        <v>542.79</v>
+      </c>
+      <c r="Q35">
+        <v>500.37</v>
+      </c>
+      <c r="R35">
+        <v>13927.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="23">
+        <v>941.1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>690.2</v>
+      </c>
+      <c r="E36" s="24">
+        <v>2003.3</v>
+      </c>
+      <c r="F36" s="25">
+        <v>83038.600000000006</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1513.6</v>
+      </c>
+      <c r="H36" s="24">
+        <v>1321.5</v>
+      </c>
+      <c r="I36" s="24">
+        <v>2003.3</v>
+      </c>
+      <c r="J36" s="25">
+        <v>80852.600000000006</v>
+      </c>
+      <c r="L36">
+        <v>22.98</v>
+      </c>
+      <c r="M36">
+        <v>28.55</v>
+      </c>
+      <c r="N36">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="P36">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="Q36">
+        <v>43.4</v>
+      </c>
+      <c r="R36">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="23">
+        <v>57.2</v>
+      </c>
+      <c r="D37" s="24">
+        <v>57.4</v>
+      </c>
+      <c r="E37" s="24">
+        <v>88.9</v>
+      </c>
+      <c r="F37" s="25">
+        <v>310.8</v>
+      </c>
+      <c r="G37" s="23">
+        <v>99.1</v>
+      </c>
+      <c r="H37" s="24">
+        <v>102.3</v>
+      </c>
+      <c r="I37" s="24">
+        <v>88.9</v>
+      </c>
+      <c r="J37" s="25">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="L37">
+        <v>90.84</v>
+      </c>
+      <c r="M37">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N37">
+        <v>12.86</v>
+      </c>
+      <c r="P37">
+        <v>95.39</v>
+      </c>
+      <c r="Q37">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="R37">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="23">
+        <v>192.5</v>
+      </c>
+      <c r="D38" s="24">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E38" s="24">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F38" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G38" s="23">
+        <v>204.2</v>
+      </c>
+      <c r="H38" s="24">
+        <v>87.9</v>
+      </c>
+      <c r="I38" s="24">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J38" s="25">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>2779.02</v>
+      </c>
+      <c r="M38">
+        <v>1005.46</v>
+      </c>
+      <c r="N38">
+        <v>4524.72</v>
+      </c>
+      <c r="P38">
+        <v>3999.77</v>
+      </c>
+      <c r="Q38">
+        <v>1465.55</v>
+      </c>
+      <c r="R38">
+        <v>75653.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="26">
+        <v>10134.700000000001</v>
+      </c>
+      <c r="D39" s="27">
+        <v>3292.76</v>
+      </c>
+      <c r="E39" s="27">
+        <v>3210.65</v>
+      </c>
+      <c r="F39" s="16">
+        <v>89287.1</v>
+      </c>
+      <c r="G39" s="26">
+        <v>16452.900000000001</v>
+      </c>
+      <c r="H39" s="27">
+        <v>6038.97</v>
+      </c>
+      <c r="I39" s="27">
+        <v>3210.65</v>
+      </c>
+      <c r="J39" s="16">
+        <v>87418.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sat_bin_python/result_log/结果统计.xlsx
+++ b/sat_bin_python/result_log/结果统计.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机分割" sheetId="1" r:id="rId1"/>
     <sheet name="动态选择bin+var" sheetId="2" r:id="rId2"/>
-    <sheet name="动态分解" sheetId="3" r:id="rId3"/>
+    <sheet name="动态分组" sheetId="3" r:id="rId3"/>
+    <sheet name="动态分组优化" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
   <si>
     <t>c16 v32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +566,26 @@
   </si>
   <si>
     <t>当bin大小64时，存在time out的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bkt_bin regroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf50-01~uf50-10 (8*16原始子句8*8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf100-01~uf100-10 (8*16原始子句8*8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一组的测试数据都是在有bug的sat_bin_dynamic_group上做的，性能没这么好，但基本趋势是对的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,18 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -899,17 +908,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,15 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -953,6 +944,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,13 +992,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,6 +1030,1852 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>动态分组优化!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnt_load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>动态分组优化!$J$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>动态分组优化!$J$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>755.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="210767280"/>
+        <c:axId val="210766888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="210767280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>bin_size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210766888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210766888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>cnt_load</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210767280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>动态分组优化!$C$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>动态分组优化!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>755.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="211167752"/>
+        <c:axId val="211166968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="211167752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211166968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211166968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211167752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2922,10 +4810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2937,12 +4825,12 @@
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -2952,23 +4840,23 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3024,7 +4912,7 @@
         <v>1784.89</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +4965,12 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3114,8 +5007,11 @@
       <c r="Q6" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3134,8 +5030,11 @@
       <c r="Q7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>153</v>
       </c>
@@ -3166,8 +5065,11 @@
       <c r="M8">
         <v>7880</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>700</v>
       </c>
@@ -3198,8 +5100,11 @@
       <c r="M9">
         <v>378</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>12987</v>
       </c>
@@ -3230,13 +5135,16 @@
       <c r="M10">
         <v>2404</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="S10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>4326</v>
       </c>
@@ -3270,8 +5178,11 @@
       <c r="N11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>124</v>
       </c>
@@ -3314,8 +5225,11 @@
       <c r="Q12" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>2052</v>
       </c>
@@ -3358,8 +5272,11 @@
       <c r="Q13">
         <v>428026</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>315</v>
       </c>
@@ -3402,8 +5319,11 @@
       <c r="Q14">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>376</v>
       </c>
@@ -3434,8 +5354,11 @@
       <c r="M15">
         <v>446</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>1153</v>
       </c>
@@ -3466,8 +5389,11 @@
       <c r="M16">
         <v>435</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>2627</v>
       </c>
@@ -3498,8 +5424,11 @@
       <c r="M17">
         <v>858</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>198</v>
       </c>
@@ -3530,8 +5459,11 @@
       <c r="M18">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>155</v>
       </c>
@@ -3562,8 +5494,11 @@
       <c r="M19">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>2495</v>
       </c>
@@ -3594,8 +5529,11 @@
       <c r="M20">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>7680</v>
       </c>
@@ -3626,8 +5564,11 @@
       <c r="M21">
         <v>3719</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>89</v>
       </c>
@@ -3658,8 +5599,11 @@
       <c r="M22">
         <v>189</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>3332</v>
       </c>
@@ -3690,8 +5634,11 @@
       <c r="M23">
         <v>3211</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>5887</v>
       </c>
@@ -3722,8 +5669,11 @@
       <c r="M24">
         <v>2211</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>3740</v>
       </c>
@@ -3754,8 +5704,11 @@
       <c r="M25">
         <v>3615</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>4845</v>
       </c>
@@ -3786,8 +5739,11 @@
       <c r="M26">
         <v>495</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>2731</v>
       </c>
@@ -3818,8 +5774,11 @@
       <c r="M27">
         <v>427</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S27">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>4385</v>
       </c>
@@ -3850,8 +5809,11 @@
       <c r="M28">
         <v>899</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>5651</v>
       </c>
@@ -3882,8 +5844,11 @@
       <c r="M29">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>3674</v>
       </c>
@@ -3914,8 +5879,11 @@
       <c r="M30">
         <v>762</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>1694</v>
       </c>
@@ -3946,8 +5914,11 @@
       <c r="M31">
         <v>1193</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>5359</v>
       </c>
@@ -3978,8 +5949,11 @@
       <c r="M32">
         <v>3142</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>8592</v>
       </c>
@@ -4010,8 +5984,11 @@
       <c r="M33">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>2255</v>
       </c>
@@ -4042,8 +6019,11 @@
       <c r="M34">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>4411</v>
       </c>
@@ -4074,8 +6054,11 @@
       <c r="M35">
         <v>929</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>58</v>
       </c>
@@ -4106,8 +6089,11 @@
       <c r="M36">
         <v>1093</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>2316</v>
       </c>
@@ -4138,8 +6124,11 @@
       <c r="M37">
         <v>1409</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>3603</v>
       </c>
@@ -4170,8 +6159,11 @@
       <c r="M38">
         <v>3061</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S38">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>9734</v>
       </c>
@@ -4202,8 +6194,11 @@
       <c r="M39">
         <v>2451</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S39">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>2229</v>
       </c>
@@ -4234,8 +6229,11 @@
       <c r="M40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>290</v>
       </c>
@@ -4266,8 +6264,11 @@
       <c r="M41">
         <v>225</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>1966</v>
       </c>
@@ -4298,8 +6299,11 @@
       <c r="M42">
         <v>1121</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>404</v>
       </c>
@@ -4330,8 +6334,11 @@
       <c r="M43">
         <v>595</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>368</v>
       </c>
@@ -4362,8 +6369,11 @@
       <c r="M44">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>588</v>
       </c>
@@ -4394,8 +6404,11 @@
       <c r="M45">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>1331</v>
       </c>
@@ -4426,8 +6439,11 @@
       <c r="M46">
         <v>347</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>1563</v>
       </c>
@@ -4458,8 +6474,11 @@
       <c r="M47">
         <v>1341</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S47">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>1301</v>
       </c>
@@ -4490,8 +6509,11 @@
       <c r="M48">
         <v>3505</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S48">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>1509</v>
       </c>
@@ -4522,8 +6544,11 @@
       <c r="M49">
         <v>1149</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S49">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>5842</v>
       </c>
@@ -4554,8 +6579,11 @@
       <c r="M50">
         <v>3523</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>359</v>
       </c>
@@ -4586,8 +6614,11 @@
       <c r="M51">
         <v>655</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>2596</v>
       </c>
@@ -4618,8 +6649,11 @@
       <c r="M52">
         <v>235</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>559</v>
       </c>
@@ -4650,8 +6684,11 @@
       <c r="M53">
         <v>201</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>7011</v>
       </c>
@@ -4682,8 +6719,11 @@
       <c r="M54">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S54">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>6092</v>
       </c>
@@ -4714,8 +6754,11 @@
       <c r="M55">
         <v>392</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S55">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>4066</v>
       </c>
@@ -4746,8 +6789,11 @@
       <c r="M56">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S56">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>8153</v>
       </c>
@@ -4778,8 +6824,11 @@
       <c r="M57">
         <v>1615</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S57">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>1679</v>
       </c>
@@ -4810,8 +6859,11 @@
       <c r="M58">
         <v>2144</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>350</v>
       </c>
@@ -4842,8 +6894,11 @@
       <c r="M59">
         <v>539</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S59">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>3016</v>
       </c>
@@ -4874,8 +6929,11 @@
       <c r="M60">
         <v>2207</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S60">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>558</v>
       </c>
@@ -4906,8 +6964,11 @@
       <c r="M61">
         <v>480</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S61">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>250</v>
       </c>
@@ -4938,8 +6999,11 @@
       <c r="M62">
         <v>798</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S62">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>1481</v>
       </c>
@@ -4970,8 +7034,11 @@
       <c r="M63">
         <v>161</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S63">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B64">
         <v>3896</v>
       </c>
@@ -5002,8 +7069,11 @@
       <c r="M64">
         <v>1970</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S64">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>6239</v>
       </c>
@@ -5034,8 +7104,11 @@
       <c r="M65">
         <v>2123</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S65">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>4361</v>
       </c>
@@ -5066,8 +7139,11 @@
       <c r="M66">
         <v>713</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S66">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>1505</v>
       </c>
@@ -5098,8 +7174,11 @@
       <c r="M67">
         <v>534</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S67">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>3391</v>
       </c>
@@ -5130,8 +7209,11 @@
       <c r="M68">
         <v>1214</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>752</v>
       </c>
@@ -5162,8 +7244,11 @@
       <c r="M69">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S69">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>3148</v>
       </c>
@@ -5194,8 +7279,11 @@
       <c r="M70">
         <v>885</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S70">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>3263</v>
       </c>
@@ -5226,8 +7314,11 @@
       <c r="M71">
         <v>1312</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S71">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>1688</v>
       </c>
@@ -5258,8 +7349,11 @@
       <c r="M72">
         <v>202</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S72">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>3351</v>
       </c>
@@ -5290,8 +7384,11 @@
       <c r="M73">
         <v>198</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S73">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>1840</v>
       </c>
@@ -5322,8 +7419,11 @@
       <c r="M74">
         <v>172</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S74">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>2176</v>
       </c>
@@ -5354,8 +7454,11 @@
       <c r="M75">
         <v>9577</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>6742</v>
       </c>
@@ -5386,8 +7489,11 @@
       <c r="M76">
         <v>2547</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S76">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>196</v>
       </c>
@@ -5418,8 +7524,11 @@
       <c r="M77">
         <v>418</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S77">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>5687</v>
       </c>
@@ -5450,8 +7559,11 @@
       <c r="M78">
         <v>254</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S78">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>3262</v>
       </c>
@@ -5482,8 +7594,11 @@
       <c r="M79">
         <v>396</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S79">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>5099</v>
       </c>
@@ -5514,8 +7629,11 @@
       <c r="M80">
         <v>1691</v>
       </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S80">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>8346</v>
       </c>
@@ -5546,8 +7664,11 @@
       <c r="M81">
         <v>2372</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S81">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>124</v>
       </c>
@@ -5578,8 +7699,11 @@
       <c r="M82">
         <v>1268</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S82">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>2683</v>
       </c>
@@ -5610,8 +7734,11 @@
       <c r="M83">
         <v>1977</v>
       </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S83">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B84">
         <v>688</v>
       </c>
@@ -5642,8 +7769,11 @@
       <c r="M84">
         <v>499</v>
       </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S84">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>2904</v>
       </c>
@@ -5674,8 +7804,11 @@
       <c r="M85">
         <v>2108</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S85">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>436</v>
       </c>
@@ -5706,8 +7839,11 @@
       <c r="M86">
         <v>500</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S86">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B87">
         <v>3819</v>
       </c>
@@ -5738,8 +7874,11 @@
       <c r="M87">
         <v>375</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S87">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B88">
         <v>3057</v>
       </c>
@@ -5770,8 +7909,11 @@
       <c r="M88">
         <v>476</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S88">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>1831</v>
       </c>
@@ -5802,8 +7944,11 @@
       <c r="M89">
         <v>1226</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S89">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B90">
         <v>1762</v>
       </c>
@@ -5834,8 +7979,11 @@
       <c r="M90">
         <v>1325</v>
       </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S90">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B91">
         <v>3228</v>
       </c>
@@ -5866,8 +8014,11 @@
       <c r="M91">
         <v>1970</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S91">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B92">
         <v>999</v>
       </c>
@@ -5898,8 +8049,11 @@
       <c r="M92">
         <v>2257</v>
       </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S92">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B93">
         <v>2468</v>
       </c>
@@ -5930,8 +8084,11 @@
       <c r="M93">
         <v>379</v>
       </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B94">
         <v>2465</v>
       </c>
@@ -5962,8 +8119,11 @@
       <c r="M94">
         <v>1317</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S94">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B95">
         <v>993</v>
       </c>
@@ -5994,8 +8154,11 @@
       <c r="M95">
         <v>293</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S95">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B96">
         <v>2771</v>
       </c>
@@ -6026,8 +8189,11 @@
       <c r="M96">
         <v>166</v>
       </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S96">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B97">
         <v>2220</v>
       </c>
@@ -6058,8 +8224,11 @@
       <c r="M97">
         <v>1064</v>
       </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S97">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B98">
         <v>292</v>
       </c>
@@ -6090,8 +8259,11 @@
       <c r="M98">
         <v>395</v>
       </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S98">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B99">
         <v>8539</v>
       </c>
@@ -6122,8 +8294,11 @@
       <c r="M99">
         <v>3690</v>
       </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S99">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B100">
         <v>5676</v>
       </c>
@@ -6154,8 +8329,11 @@
       <c r="M100">
         <v>1071</v>
       </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S100">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B101">
         <v>3856</v>
       </c>
@@ -6186,8 +8364,11 @@
       <c r="M101">
         <v>2283</v>
       </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S101">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B102">
         <v>2090</v>
       </c>
@@ -6218,8 +8399,11 @@
       <c r="M102">
         <v>2945</v>
       </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S102">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B103">
         <v>4450</v>
       </c>
@@ -6250,8 +8434,11 @@
       <c r="M103">
         <v>369</v>
       </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S103">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B104">
         <v>4600</v>
       </c>
@@ -6282,8 +8469,11 @@
       <c r="M104">
         <v>1336</v>
       </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="S104">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B105">
         <v>10951</v>
       </c>
@@ -6315,7 +8505,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B106">
         <v>463</v>
       </c>
@@ -6347,7 +8537,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B107">
         <v>1394</v>
       </c>
@@ -6380,6 +8570,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="S5:S104">
+    <sortCondition ref="S5"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="G2:I2"/>
@@ -6394,10 +8587,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6412,103 +8605,103 @@
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="3"/>
       <c r="K1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="38">
         <v>91</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="4"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="38">
         <v>218</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="38">
         <v>20</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="4"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="38">
         <v>50</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="38">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="34">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="20">
         <v>8</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="19">
         <v>16</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="19">
         <v>32</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="1" t="s">
         <v>153</v>
       </c>
@@ -6536,22 +8729,22 @@
       <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="38">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="34">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20">
         <v>8</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="19">
         <v>16</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="19">
         <v>32</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1" t="s">
         <v>155</v>
       </c>
@@ -6587,24 +8780,24 @@
         <v>157</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
@@ -6616,11 +8809,11 @@
         <v>144</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="3"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6632,7 +8825,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B8" t="s">
@@ -6676,7 +8869,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
         <v>132</v>
       </c>
@@ -6718,7 +8911,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="27"/>
       <c r="B10" t="s">
         <v>133</v>
       </c>
@@ -6760,7 +8953,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="27"/>
       <c r="B11" t="s">
         <v>134</v>
       </c>
@@ -6802,7 +8995,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
         <v>135</v>
       </c>
@@ -6844,7 +9037,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
         <v>136</v>
       </c>
@@ -6886,7 +9079,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="27"/>
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -6928,7 +9121,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="27"/>
       <c r="B15" t="s">
         <v>138</v>
       </c>
@@ -6970,7 +9163,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="27"/>
       <c r="B16" t="s">
         <v>139</v>
       </c>
@@ -7012,7 +9205,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="27"/>
       <c r="B17" t="s">
         <v>140</v>
       </c>
@@ -7054,7 +9247,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>141</v>
       </c>
@@ -7140,124 +9333,124 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="31">
         <v>430</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="38">
         <v>218</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="31">
         <v>100</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="38">
         <v>50</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="18">
         <v>8</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="18">
         <v>16</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="18">
         <v>32</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="18">
         <v>64</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="8">
         <v>8</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="8">
         <v>16</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="8">
         <v>32</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="8">
         <v>64</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="19">
         <v>8</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="19">
         <v>16</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="19">
         <v>32</v>
       </c>
       <c r="O24" s="1"/>
@@ -7272,43 +9465,43 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="18">
         <v>8</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="18">
         <v>16</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="18">
         <v>32</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="18">
         <v>64</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="8">
         <v>8</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="8">
         <v>16</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="8">
         <v>32</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="8">
         <v>64</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="19">
         <v>8</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="19">
         <v>16</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="19">
         <v>32</v>
       </c>
       <c r="O25" s="1"/>
@@ -7323,42 +9516,42 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="18" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="14"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
       <c r="L27">
         <v>4566.74</v>
       </c>
@@ -7379,34 +9572,34 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="10">
         <v>20221.900000000001</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="11">
         <v>6354.4</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="11">
         <v>5934.3</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="12">
         <v>166304</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="10">
         <v>32651.599999999999</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="11">
         <v>12060.8</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="11">
         <v>5934.3</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="12">
         <v>161930</v>
       </c>
       <c r="L28">
@@ -7429,32 +9622,32 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="27"/>
       <c r="B29" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="13">
         <v>20220.900000000001</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="14">
         <v>6353.4</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="14">
         <v>5933.3</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="15">
         <v>166303</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="13">
         <v>32650.6</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="14">
         <v>12059.8</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="14">
         <v>5933.3</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="15">
         <v>161930</v>
       </c>
       <c r="L29">
@@ -7477,32 +9670,32 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+      <c r="A30" s="27"/>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="13">
         <v>926.6</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="14">
         <v>675.8</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="14">
         <v>1990.8</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="15">
         <v>83032.399999999994</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="13">
         <v>1494.2</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="14">
         <v>1300.7</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="14">
         <v>1990.8</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="15">
         <v>80847.199999999997</v>
       </c>
       <c r="L30">
@@ -7525,32 +9718,32 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="27"/>
       <c r="B31" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="13">
         <v>92660</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="14">
         <v>67580</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="14">
         <v>199080</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="15">
         <v>8303240</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="13">
         <v>149420</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="14">
         <v>130070</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="14">
         <v>199080</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="15">
         <v>8084720</v>
       </c>
       <c r="L31">
@@ -7573,32 +9766,32 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="27"/>
       <c r="B32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="13">
         <v>9741.7000000000007</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="14">
         <v>6271.3</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="14">
         <v>13927.7</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="15">
         <v>469896</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="13">
         <v>16772.400000000001</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="14">
         <v>13006.3</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="14">
         <v>13927.7</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="15">
         <v>459300</v>
       </c>
       <c r="L32">
@@ -7621,32 +9814,32 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="27"/>
       <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="13">
         <v>22999.8</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="14">
         <v>8270.6</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="14">
         <v>10771.4</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="15">
         <v>364507</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="13">
         <v>37951.5</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="14">
         <v>16551.8</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="14">
         <v>10771.4</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="15">
         <v>354949</v>
       </c>
       <c r="L33">
@@ -7669,32 +9862,32 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="27"/>
       <c r="B34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="13">
         <v>23940.9</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="14">
         <v>8960.7999999999993</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="14">
         <v>12774.7</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="15">
         <v>447546</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="13">
         <v>39465.1</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="14">
         <v>17873.3</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="14">
         <v>12774.7</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="15">
         <v>435802</v>
       </c>
       <c r="L34">
@@ -7717,32 +9910,32 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="27"/>
       <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="13">
         <v>14.5</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="14">
         <v>14.4</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="14">
         <v>12.5</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="15">
         <v>6.2</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="13">
         <v>19.399999999999999</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="14">
         <v>20.8</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="14">
         <v>12.5</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="15">
         <v>5.4</v>
       </c>
       <c r="L35">
@@ -7765,32 +9958,32 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="27"/>
       <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="13">
         <v>941.1</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="14">
         <v>690.2</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="14">
         <v>2003.3</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="15">
         <v>83038.600000000006</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="13">
         <v>1513.6</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="14">
         <v>1321.5</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="14">
         <v>2003.3</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="15">
         <v>80852.600000000006</v>
       </c>
       <c r="L36">
@@ -7813,32 +10006,32 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="27"/>
       <c r="B37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="13">
         <v>57.2</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="14">
         <v>57.4</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="14">
         <v>88.9</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="15">
         <v>310.8</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="13">
         <v>99.1</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="14">
         <v>102.3</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="14">
         <v>88.9</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="15">
         <v>302.60000000000002</v>
       </c>
       <c r="L37">
@@ -7861,32 +10054,32 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
+      <c r="A38" s="28"/>
       <c r="B38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="13">
         <v>192.5</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="14">
         <v>81.900000000000006</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="14">
         <v>35.700000000000003</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="13">
         <v>204.2</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="14">
         <v>87.9</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="14">
         <v>35.700000000000003</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="15">
         <v>5</v>
       </c>
       <c r="L38">
@@ -7915,28 +10108,28 @@
       <c r="B39" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="16">
         <v>10134.700000000001</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="17">
         <v>3292.76</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="17">
         <v>3210.65</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="9">
         <v>89287.1</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="16">
         <v>16452.900000000001</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="17">
         <v>6038.97</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="17">
         <v>3210.65</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="9">
         <v>87418.1</v>
       </c>
     </row>
@@ -7945,8 +10138,26 @@
         <v>162</v>
       </c>
     </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="L21:R21"/>
     <mergeCell ref="L26:N26"/>
@@ -7958,22 +10169,1006 @@
     <mergeCell ref="L22:R22"/>
     <mergeCell ref="L23:R23"/>
     <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A8:A18"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="38">
+        <v>218</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="P2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="38">
+        <v>50</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="I3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="P3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1">
+        <v>16</v>
+      </c>
+      <c r="S3" s="1">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="38">
+        <v>16</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="I4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="38">
+        <v>16</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="21">
+        <v>3987</v>
+      </c>
+      <c r="K5" s="21">
+        <v>755.5</v>
+      </c>
+      <c r="L5" s="21">
+        <v>169.8</v>
+      </c>
+      <c r="M5" s="21">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>1823.16</v>
+      </c>
+      <c r="D8">
+        <v>1608.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9">
+        <v>1822.16</v>
+      </c>
+      <c r="D9">
+        <v>1607.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10">
+        <v>322.06</v>
+      </c>
+      <c r="D10">
+        <v>219.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <v>16103</v>
+      </c>
+      <c r="D11">
+        <v>10972.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>2213.62</v>
+      </c>
+      <c r="D12">
+        <v>1800.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13">
+        <v>2370.33</v>
+      </c>
+      <c r="D13">
+        <v>2058.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>2699.68</v>
+      </c>
+      <c r="D14">
+        <v>2279.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>7.29</v>
+      </c>
+      <c r="D15">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16">
+        <v>329.35</v>
+      </c>
+      <c r="D16">
+        <v>221.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>28.55</v>
+      </c>
+      <c r="D17">
+        <v>28.37</v>
+      </c>
+      <c r="U17" s="21"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D18">
+        <v>40.42</v>
+      </c>
+      <c r="U18" s="21"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19">
+        <v>1005.46</v>
+      </c>
+      <c r="D19">
+        <v>889.71600000000001</v>
+      </c>
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U20" s="21"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U21" s="21"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="U22" s="21"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="U23" s="21"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="4">
+        <v>218</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="U25" s="21"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="4">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3">
+        <v>32</v>
+      </c>
+      <c r="G27" s="3">
+        <v>40</v>
+      </c>
+      <c r="H27" s="3">
+        <v>48</v>
+      </c>
+      <c r="I27" s="3">
+        <v>56</v>
+      </c>
+      <c r="J27" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3">
+        <v>32</v>
+      </c>
+      <c r="G28" s="3">
+        <v>40</v>
+      </c>
+      <c r="H28" s="3">
+        <v>48</v>
+      </c>
+      <c r="I28" s="3">
+        <v>56</v>
+      </c>
+      <c r="J28" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="21">
+        <v>3987</v>
+      </c>
+      <c r="D29" s="21">
+        <v>755.5</v>
+      </c>
+      <c r="E29" s="21">
+        <v>395.9</v>
+      </c>
+      <c r="F29" s="21">
+        <v>169.8</v>
+      </c>
+      <c r="G29" s="21">
+        <v>99.3</v>
+      </c>
+      <c r="H29" s="21">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I29" s="21">
+        <v>28.6</v>
+      </c>
+      <c r="J29" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="27"/>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="21">
+        <v>3986</v>
+      </c>
+      <c r="D30" s="21">
+        <v>754.5</v>
+      </c>
+      <c r="E30" s="21">
+        <v>394.9</v>
+      </c>
+      <c r="F30" s="21">
+        <v>168.8</v>
+      </c>
+      <c r="G30" s="21">
+        <v>98.3</v>
+      </c>
+      <c r="H30" s="21">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I30" s="21">
+        <v>27.6</v>
+      </c>
+      <c r="J30" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="21">
+        <v>226.9</v>
+      </c>
+      <c r="D31" s="21">
+        <v>88</v>
+      </c>
+      <c r="E31" s="21">
+        <v>77</v>
+      </c>
+      <c r="F31" s="21">
+        <v>53.4</v>
+      </c>
+      <c r="G31" s="21">
+        <v>47.9</v>
+      </c>
+      <c r="H31" s="21">
+        <v>20.2</v>
+      </c>
+      <c r="I31" s="21">
+        <v>19</v>
+      </c>
+      <c r="J31" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="21">
+        <v>11345</v>
+      </c>
+      <c r="D32" s="21">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="21">
+        <v>3850</v>
+      </c>
+      <c r="F32" s="21">
+        <v>2670</v>
+      </c>
+      <c r="G32" s="21">
+        <v>2395</v>
+      </c>
+      <c r="H32" s="21">
+        <v>1010</v>
+      </c>
+      <c r="I32" s="21">
+        <v>950</v>
+      </c>
+      <c r="J32" s="21">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1896.2</v>
+      </c>
+      <c r="D33" s="21">
+        <v>715.9</v>
+      </c>
+      <c r="E33" s="21">
+        <v>629.6</v>
+      </c>
+      <c r="F33" s="21">
+        <v>448.7</v>
+      </c>
+      <c r="G33" s="21">
+        <v>400.8</v>
+      </c>
+      <c r="H33" s="21">
+        <v>191.1</v>
+      </c>
+      <c r="I33" s="21">
+        <v>168.4</v>
+      </c>
+      <c r="J33" s="21">
+        <v>128.19999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="21">
+        <v>4469.3999999999996</v>
+      </c>
+      <c r="D34" s="21">
+        <v>969.5</v>
+      </c>
+      <c r="E34" s="21">
+        <v>611.20000000000005</v>
+      </c>
+      <c r="F34" s="21">
+        <v>348.9</v>
+      </c>
+      <c r="G34" s="21">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="H34" s="21">
+        <v>118.1</v>
+      </c>
+      <c r="I34" s="21">
+        <v>101.5</v>
+      </c>
+      <c r="J34" s="21">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="21">
+        <v>4697.5</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1058.2</v>
+      </c>
+      <c r="E35" s="21">
+        <v>689</v>
+      </c>
+      <c r="F35" s="21">
+        <v>402.8</v>
+      </c>
+      <c r="G35" s="21">
+        <v>315.2</v>
+      </c>
+      <c r="H35" s="21">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="I35" s="21">
+        <v>121.4</v>
+      </c>
+      <c r="J35" s="21">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="21">
+        <v>228.1</v>
+      </c>
+      <c r="D37" s="21">
+        <v>88.7</v>
+      </c>
+      <c r="E37" s="21">
+        <v>77.8</v>
+      </c>
+      <c r="F37" s="21">
+        <v>53.9</v>
+      </c>
+      <c r="G37" s="21">
+        <v>49.8</v>
+      </c>
+      <c r="H37" s="21">
+        <v>21.2</v>
+      </c>
+      <c r="I37" s="21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J37" s="21">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="D38" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="E38" s="21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F38" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="G38" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H38" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="I38" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="J38" s="21">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="21">
+        <v>89.4</v>
+      </c>
+      <c r="D39" s="21">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E39" s="21">
+        <v>19.3</v>
+      </c>
+      <c r="F39" s="21">
+        <v>12.1</v>
+      </c>
+      <c r="G39" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="H39" s="21">
+        <v>5</v>
+      </c>
+      <c r="I39" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J39" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="21">
+        <v>2389.85</v>
+      </c>
+      <c r="D40" s="21">
+        <v>404.363</v>
+      </c>
+      <c r="E40" s="21">
+        <v>197.69200000000001</v>
+      </c>
+      <c r="F40" s="21">
+        <v>87.301599999999993</v>
+      </c>
+      <c r="G40" s="21">
+        <v>55.094099999999997</v>
+      </c>
+      <c r="H40" s="21">
+        <v>17.408200000000001</v>
+      </c>
+      <c r="I40" s="21">
+        <v>15.0593</v>
+      </c>
+      <c r="J40" s="21">
+        <v>10.156599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="21"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/sat_bin_python/result_log/结果统计.xlsx
+++ b/sat_bin_python/result_log/结果统计.xlsx
@@ -15,10 +15,13 @@
     <sheet name="随机分割" sheetId="1" r:id="rId1"/>
     <sheet name="动态选择bin+var" sheetId="2" r:id="rId2"/>
     <sheet name="动态分组" sheetId="3" r:id="rId3"/>
-    <sheet name="动态分组优化" sheetId="4" r:id="rId4"/>
+    <sheet name="重组回退的bin" sheetId="4" r:id="rId4"/>
+    <sheet name="uf100" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="176">
   <si>
     <t>c16 v32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,43 +552,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uf100-01~uf100-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf50-01~uf50-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_cmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当bin大小64时，存在time out的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf50-01~uf50-10 (8*16原始子句8*8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uf100-01~uf100-10 (8*16原始子句8*8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一组的测试数据都是在有bug的sat_bin_dynamic_group上做的，性能没这么好，但基本趋势是对的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">num_bins         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat bin time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minisat time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>each bin time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total bin time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uf50-01~uf50-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uf100-01~uf100-10</t>
+    <t>重组bkt bin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uf50-01~uf50-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin_cmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当bin大小64时，存在time out的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bkt_bin regroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uf50-01~uf50-10 (8*16原始子句8*8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uf100-01~uf100-10 (8*16原始子句8*8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一组的测试数据都是在有bug的sat_bin_dynamic_group上做的，性能没这么好，但基本趋势是对的。</t>
+    <t>不重组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,6 +628,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,6 +948,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,16 +1003,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -972,9 +1055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -999,15 +1079,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1047,6 +1118,48 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>bin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>对</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>次数的影响</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1080,37 +1193,98 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>动态分组优化!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cnt_load</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>动态分组优化!$J$4:$M$4</c:f>
+              <c:f>重组回退的bin!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1121,51 +1295,53 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>动态分组优化!$J$5:$M$5</c:f>
+              <c:f>重组回退的bin!$C$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3987</c:v>
+                  <c:v>4496.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>755.5</c:v>
+                  <c:v>1698.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.8</c:v>
+                  <c:v>1820.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>2171.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="210767280"/>
-        <c:axId val="210766888"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="214723320"/>
+        <c:axId val="214725280"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="210767280"/>
+        <c:axId val="214723320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1368,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>bin_size</a:t>
+                  <a:t>bin size</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1265,7 +1441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210766888"/>
+        <c:crossAx val="214725280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1273,7 +1449,545 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210766888"/>
+        <c:axId val="214725280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>cnt_load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214723320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>bin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>大小与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>次数的关系</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>重组回退的bin!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnt_load         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>重组回退的bin!$B$22:$J$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>重组回退的bin!$C$22:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>重组回退的bin!$C$23:$J$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>重组回退的bin!$D$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="351142672"/>
+        <c:axId val="351143456"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>重组回退的bin!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_bins         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>重组回退的bin!$C$24:$J$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>重组回退的bin!$D$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="351142280"/>
+        <c:axId val="351138360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="351142672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>bin size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351143456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351143456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,10 +2095,126 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210767280"/>
+        <c:crossAx val="351142672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="351138360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>num_bins</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351142280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="351142280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="351138360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1393,6 +2223,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1430,7 +2292,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1445,6 +2307,54 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>bin size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>对</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>次数的影响</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1485,6 +2395,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'uf100'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnt_load         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1497,10 +2418,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>动态分组优化!$C$28:$J$28</c:f>
+              <c:f>'uf100'!$C$23:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1525,39 +2446,27 @@
                 <c:pt idx="7">
                   <c:v>64</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>动态分组优化!$C$29:$J$29</c:f>
+              <c:f>'uf100'!$C$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>755.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>395.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>169.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1571,17 +2480,137 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="211167752"/>
-        <c:axId val="211166968"/>
+        <c:axId val="214719792"/>
+        <c:axId val="214718224"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'uf100'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_bins         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'uf100'!$C$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="351143848"/>
+        <c:axId val="214720968"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="211167752"/>
+        <c:axId val="214719792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>bin size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1619,7 +2648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211166968"/>
+        <c:crossAx val="214718224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,8 +2656,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211166968"/>
+        <c:axId val="214718224"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1647,6 +2677,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>cnt load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1678,10 +2764,127 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211167752"/>
+        <c:crossAx val="214719792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="214720968"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>num_bins</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351143848"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="351143848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214720968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1690,6 +2893,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1768,6 +3003,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2813,20 +4088,588 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2845,37 +4688,20 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="动态分组优化"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4812,8 +6638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4840,21 +6666,21 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="O2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -5135,11 +6961,11 @@
       <c r="M10">
         <v>2404</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
       <c r="S10">
         <v>11</v>
       </c>
@@ -8587,10 +10413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="L8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8605,28 +10431,28 @@
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="3"/>
       <c r="K1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="L1" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
@@ -8692,13 +10518,13 @@
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="20">
+      <c r="G4" s="24">
         <v>8</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="23">
         <v>16</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="23">
         <v>32</v>
       </c>
       <c r="J4" s="6"/>
@@ -8712,18 +10538,14 @@
         <v>16</v>
       </c>
       <c r="N4" s="1">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>16</v>
-      </c>
-      <c r="R4" s="1">
-        <v>32</v>
-      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -8735,13 +10557,13 @@
       <c r="D5" s="39"/>
       <c r="E5" s="40"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="20">
+      <c r="G5" s="24">
         <v>8</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="23">
         <v>16</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="23">
         <v>32</v>
       </c>
       <c r="J5" s="6"/>
@@ -8755,18 +10577,14 @@
         <v>16</v>
       </c>
       <c r="N5" s="1">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
         <v>32</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>16</v>
-      </c>
-      <c r="R5" s="1">
-        <v>32</v>
-      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
@@ -8780,24 +10598,22 @@
         <v>157</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
@@ -8809,11 +10625,11 @@
         <v>144</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="3"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -8825,7 +10641,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="41" t="s">
         <v>148</v>
       </c>
       <c r="B8" t="s">
@@ -8849,27 +10665,21 @@
       <c r="I8">
         <v>117.77</v>
       </c>
-      <c r="L8">
-        <v>3625.3</v>
-      </c>
-      <c r="M8">
-        <v>2402.1</v>
-      </c>
-      <c r="N8">
-        <v>11423.5</v>
-      </c>
-      <c r="P8">
-        <v>7137.6</v>
-      </c>
-      <c r="Q8">
-        <v>2438.5</v>
-      </c>
-      <c r="R8">
-        <v>3193.8</v>
+      <c r="L8" s="32">
+        <v>10574.3</v>
+      </c>
+      <c r="M8" s="32">
+        <v>4749.2</v>
+      </c>
+      <c r="N8" s="32">
+        <v>10955.1</v>
+      </c>
+      <c r="O8" s="32">
+        <v>103339</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="42"/>
       <c r="B9" t="s">
         <v>132</v>
       </c>
@@ -8891,27 +10701,21 @@
       <c r="I9">
         <v>116.77</v>
       </c>
-      <c r="L9">
-        <v>3624.3</v>
-      </c>
-      <c r="M9">
-        <v>2401.1</v>
-      </c>
-      <c r="N9">
-        <v>11422.5</v>
-      </c>
-      <c r="P9">
-        <v>7136.6</v>
-      </c>
-      <c r="Q9">
-        <v>2437.5</v>
-      </c>
-      <c r="R9">
-        <v>3192.8</v>
+      <c r="L9" s="32">
+        <v>10573.3</v>
+      </c>
+      <c r="M9" s="32">
+        <v>4748.2</v>
+      </c>
+      <c r="N9" s="32">
+        <v>10954.1</v>
+      </c>
+      <c r="O9" s="32">
+        <v>103338</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="42"/>
       <c r="B10" t="s">
         <v>133</v>
       </c>
@@ -8933,27 +10737,21 @@
       <c r="I10">
         <v>55.89</v>
       </c>
-      <c r="L10">
-        <v>264.8</v>
-      </c>
-      <c r="M10">
-        <v>412.1</v>
-      </c>
-      <c r="N10">
-        <v>5498.8</v>
-      </c>
-      <c r="P10">
-        <v>517.70000000000005</v>
-      </c>
-      <c r="Q10">
-        <v>408</v>
-      </c>
-      <c r="R10">
-        <v>1378.3</v>
+      <c r="L10" s="32">
+        <v>958.4</v>
+      </c>
+      <c r="M10" s="32">
+        <v>993.6</v>
+      </c>
+      <c r="N10" s="32">
+        <v>4643.6000000000004</v>
+      </c>
+      <c r="O10" s="32">
+        <v>45950.9</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="42"/>
       <c r="B11" t="s">
         <v>134</v>
       </c>
@@ -8975,27 +10773,21 @@
       <c r="I11">
         <v>1117.8</v>
       </c>
-      <c r="L11">
-        <v>13240</v>
-      </c>
-      <c r="M11">
-        <v>20605</v>
-      </c>
-      <c r="N11">
-        <v>274940</v>
-      </c>
-      <c r="P11">
-        <v>25885</v>
-      </c>
-      <c r="Q11">
-        <v>20400</v>
-      </c>
-      <c r="R11">
-        <v>68915</v>
+      <c r="L11" s="32">
+        <v>47920</v>
+      </c>
+      <c r="M11" s="32">
+        <v>49680</v>
+      </c>
+      <c r="N11" s="32">
+        <v>232180</v>
+      </c>
+      <c r="O11" s="32">
+        <v>2297545</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="42"/>
       <c r="B12" t="s">
         <v>135</v>
       </c>
@@ -9017,27 +10809,21 @@
       <c r="I12">
         <v>255.44</v>
       </c>
-      <c r="L12">
-        <v>1999</v>
-      </c>
-      <c r="M12">
-        <v>2857.4</v>
-      </c>
-      <c r="N12">
-        <v>20350.599999999999</v>
-      </c>
-      <c r="P12">
-        <v>4114.3</v>
-      </c>
-      <c r="Q12">
-        <v>3000.4</v>
-      </c>
-      <c r="R12">
-        <v>8752.9</v>
+      <c r="L12" s="32">
+        <v>6667</v>
+      </c>
+      <c r="M12" s="32">
+        <v>6213.9</v>
+      </c>
+      <c r="N12" s="32">
+        <v>19451</v>
+      </c>
+      <c r="O12" s="32">
+        <v>212344</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="42"/>
       <c r="B13" t="s">
         <v>136</v>
       </c>
@@ -9059,27 +10845,21 @@
       <c r="I13">
         <v>157.19999999999999</v>
       </c>
-      <c r="L13">
-        <v>4072.6</v>
-      </c>
-      <c r="M13">
-        <v>3097.3</v>
-      </c>
-      <c r="N13">
-        <v>14957.6</v>
-      </c>
-      <c r="P13">
-        <v>8157.5</v>
-      </c>
-      <c r="Q13">
-        <v>3236.7</v>
-      </c>
-      <c r="R13">
-        <v>6652.9</v>
+      <c r="L13" s="32">
+        <v>11897.7</v>
+      </c>
+      <c r="M13" s="32">
+        <v>5951.1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>14170.6</v>
+      </c>
+      <c r="O13" s="32">
+        <v>172095</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="42"/>
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -9101,27 +10881,21 @@
       <c r="I14">
         <v>215.26</v>
       </c>
-      <c r="L14">
-        <v>4342.8</v>
-      </c>
-      <c r="M14">
-        <v>3518.8</v>
-      </c>
-      <c r="N14">
-        <v>20461.7</v>
-      </c>
-      <c r="P14">
-        <v>8684.4</v>
-      </c>
-      <c r="Q14">
-        <v>3653.4</v>
-      </c>
-      <c r="R14">
-        <v>8036.1</v>
+      <c r="L14" s="32">
+        <v>12886.9</v>
+      </c>
+      <c r="M14" s="32">
+        <v>6982.5</v>
+      </c>
+      <c r="N14" s="32">
+        <v>18840.400000000001</v>
+      </c>
+      <c r="O14" s="32">
+        <v>218284</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="42"/>
       <c r="B15" t="s">
         <v>138</v>
       </c>
@@ -9143,27 +10917,21 @@
       <c r="I15">
         <v>2.17</v>
       </c>
-      <c r="L15">
-        <v>5.4</v>
-      </c>
-      <c r="M15">
-        <v>9.4</v>
-      </c>
-      <c r="N15">
-        <v>5.3</v>
-      </c>
-      <c r="P15">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q15">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="R15">
-        <v>4.9000000000000004</v>
+      <c r="L15" s="32">
+        <v>30.8</v>
+      </c>
+      <c r="M15" s="32">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="N15" s="32">
+        <v>26.1</v>
+      </c>
+      <c r="O15" s="32">
+        <v>238.3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="42"/>
       <c r="B16" t="s">
         <v>139</v>
       </c>
@@ -9185,27 +10953,21 @@
       <c r="I16">
         <v>58.06</v>
       </c>
-      <c r="L16">
-        <v>270.2</v>
-      </c>
-      <c r="M16">
-        <v>421.5</v>
-      </c>
-      <c r="N16">
-        <v>5504.1</v>
-      </c>
-      <c r="P16">
-        <v>526.9</v>
-      </c>
-      <c r="Q16">
-        <v>416.7</v>
-      </c>
-      <c r="R16">
-        <v>1383.2</v>
+      <c r="L16" s="32">
+        <v>989.2</v>
+      </c>
+      <c r="M16" s="32">
+        <v>1031.4000000000001</v>
+      </c>
+      <c r="N16" s="32">
+        <v>4669.8</v>
+      </c>
+      <c r="O16" s="32">
+        <v>46189.2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="42"/>
       <c r="B17" t="s">
         <v>140</v>
       </c>
@@ -9227,27 +10989,21 @@
       <c r="I17">
         <v>4.99</v>
       </c>
-      <c r="L17">
-        <v>16.7</v>
-      </c>
-      <c r="M17">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="N17">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="P17">
-        <v>35.6</v>
-      </c>
-      <c r="Q17">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="R17">
-        <v>126.2</v>
+      <c r="L17" s="32">
+        <v>100.9</v>
+      </c>
+      <c r="M17" s="32">
+        <v>118.9</v>
+      </c>
+      <c r="N17" s="32">
+        <v>171.1</v>
+      </c>
+      <c r="O17" s="32">
+        <v>783.8</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
+      <c r="A18" s="43"/>
       <c r="B18" t="s">
         <v>141</v>
       </c>
@@ -9269,23 +11025,17 @@
       <c r="I18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L18">
-        <v>89.6</v>
-      </c>
-      <c r="M18">
-        <v>37</v>
-      </c>
-      <c r="N18">
-        <v>12.9</v>
-      </c>
-      <c r="P18">
-        <v>94.5</v>
-      </c>
-      <c r="Q18">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="R18">
-        <v>14.5</v>
+      <c r="L18" s="32">
+        <v>121.7</v>
+      </c>
+      <c r="M18" s="32">
+        <v>49.7</v>
+      </c>
+      <c r="N18" s="32">
+        <v>24.8</v>
+      </c>
+      <c r="O18" s="32">
+        <v>15.4</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -9313,66 +11063,60 @@
       <c r="I19">
         <v>116.11</v>
       </c>
-      <c r="L19">
-        <v>2021.92</v>
-      </c>
-      <c r="M19">
-        <v>1317.89</v>
-      </c>
-      <c r="N19">
-        <v>10045.1</v>
-      </c>
-      <c r="P19">
-        <v>3815.27</v>
-      </c>
-      <c r="Q19">
-        <v>1294.19</v>
-      </c>
-      <c r="R19">
-        <v>1916.85</v>
+      <c r="L19" s="32">
+        <v>7992.21</v>
+      </c>
+      <c r="M19" s="32">
+        <v>3378.88</v>
+      </c>
+      <c r="N19" s="32">
+        <v>7750.57</v>
+      </c>
+      <c r="O19" s="32">
+        <v>96163.4</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="C21" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
+      <c r="L21" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="45">
         <v>430</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="1" t="s">
         <v>156</v>
       </c>
@@ -9387,19 +11131,19 @@
       <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="45">
         <v>100</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="1" t="s">
         <v>154</v>
       </c>
@@ -9414,43 +11158,43 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="22">
         <v>8</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="22">
         <v>16</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="22">
         <v>32</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="22">
         <v>64</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <v>8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="12">
         <v>16</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="12">
         <v>32</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="12">
         <v>64</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="23">
         <v>8</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="23">
         <v>16</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="23">
         <v>32</v>
       </c>
       <c r="O24" s="1"/>
@@ -9465,43 +11209,43 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="22">
         <v>8</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="22">
         <v>16</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="22">
         <v>32</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="22">
         <v>64</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="12">
         <v>8</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="12">
         <v>16</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="12">
         <v>32</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="12">
         <v>64</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="23">
         <v>8</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="23">
         <v>16</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="23">
         <v>32</v>
       </c>
       <c r="O25" s="1"/>
@@ -9516,42 +11260,42 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="29" t="s">
+      <c r="P26" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="L27">
         <v>4566.74</v>
       </c>
@@ -9572,34 +11316,34 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="41" t="s">
         <v>148</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="14">
         <v>20221.900000000001</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="15">
         <v>6354.4</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="15">
         <v>5934.3</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="16">
         <v>166304</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="14">
         <v>32651.599999999999</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="15">
         <v>12060.8</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="15">
         <v>5934.3</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="16">
         <v>161930</v>
       </c>
       <c r="L28">
@@ -9622,32 +11366,32 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
+      <c r="A29" s="42"/>
       <c r="B29" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="17">
         <v>20220.900000000001</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="18">
         <v>6353.4</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="18">
         <v>5933.3</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="19">
         <v>166303</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="17">
         <v>32650.6</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="18">
         <v>12059.8</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="18">
         <v>5933.3</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="19">
         <v>161930</v>
       </c>
       <c r="L29">
@@ -9670,32 +11414,32 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
+      <c r="A30" s="42"/>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="17">
         <v>926.6</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="18">
         <v>675.8</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="18">
         <v>1990.8</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="19">
         <v>83032.399999999994</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="17">
         <v>1494.2</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="18">
         <v>1300.7</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="18">
         <v>1990.8</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="19">
         <v>80847.199999999997</v>
       </c>
       <c r="L30">
@@ -9718,32 +11462,32 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
+      <c r="A31" s="42"/>
       <c r="B31" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="17">
         <v>92660</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <v>67580</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="18">
         <v>199080</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="19">
         <v>8303240</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="17">
         <v>149420</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="18">
         <v>130070</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="18">
         <v>199080</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="19">
         <v>8084720</v>
       </c>
       <c r="L31">
@@ -9766,32 +11510,32 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
+      <c r="A32" s="42"/>
       <c r="B32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="17">
         <v>9741.7000000000007</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="18">
         <v>6271.3</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="18">
         <v>13927.7</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="19">
         <v>469896</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="17">
         <v>16772.400000000001</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="18">
         <v>13006.3</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="18">
         <v>13927.7</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="19">
         <v>459300</v>
       </c>
       <c r="L32">
@@ -9814,32 +11558,32 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
+      <c r="A33" s="42"/>
       <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="17">
         <v>22999.8</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="18">
         <v>8270.6</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="18">
         <v>10771.4</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="19">
         <v>364507</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="17">
         <v>37951.5</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="18">
         <v>16551.8</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="18">
         <v>10771.4</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="19">
         <v>354949</v>
       </c>
       <c r="L33">
@@ -9862,32 +11606,32 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
+      <c r="A34" s="42"/>
       <c r="B34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="17">
         <v>23940.9</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="18">
         <v>8960.7999999999993</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="18">
         <v>12774.7</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="19">
         <v>447546</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="17">
         <v>39465.1</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="18">
         <v>17873.3</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="18">
         <v>12774.7</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="19">
         <v>435802</v>
       </c>
       <c r="L34">
@@ -9910,32 +11654,32 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
+      <c r="A35" s="42"/>
       <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="17">
         <v>14.5</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="18">
         <v>14.4</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="18">
         <v>12.5</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="19">
         <v>6.2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="17">
         <v>19.399999999999999</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="18">
         <v>20.8</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="18">
         <v>12.5</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="19">
         <v>5.4</v>
       </c>
       <c r="L35">
@@ -9958,32 +11702,32 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
+      <c r="A36" s="42"/>
       <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="17">
         <v>941.1</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="18">
         <v>690.2</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="18">
         <v>2003.3</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="19">
         <v>83038.600000000006</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="17">
         <v>1513.6</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="18">
         <v>1321.5</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="18">
         <v>2003.3</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="19">
         <v>80852.600000000006</v>
       </c>
       <c r="L36">
@@ -10006,32 +11750,32 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
+      <c r="A37" s="42"/>
       <c r="B37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="17">
         <v>57.2</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="18">
         <v>57.4</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="18">
         <v>88.9</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="19">
         <v>310.8</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="17">
         <v>99.1</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="18">
         <v>102.3</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="18">
         <v>88.9</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="19">
         <v>302.60000000000002</v>
       </c>
       <c r="L37">
@@ -10054,32 +11798,32 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
+      <c r="A38" s="43"/>
       <c r="B38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="17">
         <v>192.5</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="18">
         <v>81.900000000000006</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="18">
         <v>35.700000000000003</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="17">
         <v>204.2</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="18">
         <v>87.9</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="18">
         <v>35.700000000000003</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="19">
         <v>5</v>
       </c>
       <c r="L38">
@@ -10108,56 +11852,85 @@
       <c r="B39" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>10134.700000000001</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="21">
         <v>3292.76</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="21">
         <v>3210.65</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="13">
         <v>89287.1</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="20">
         <v>16452.900000000001</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="21">
         <v>6038.97</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="21">
         <v>3210.65</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="13">
         <v>87418.1</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O44" s="32"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O45" s="32"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+    </row>
+    <row r="59" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+    </row>
+    <row r="60" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+    </row>
+    <row r="61" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+    </row>
+    <row r="62" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+    </row>
+    <row r="63" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A8:A18"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="L21:R21"/>
     <mergeCell ref="L26:N26"/>
@@ -10169,6 +11942,19 @@
     <mergeCell ref="L22:R22"/>
     <mergeCell ref="L23:R23"/>
     <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10178,10 +11964,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10192,983 +11978,1745 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="38">
+      <c r="C3" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="U3" s="25"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="4">
         <v>218</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="P2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="38">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="I3" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="P3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="3">
         <v>8</v>
       </c>
-      <c r="R3" s="1">
+      <c r="D6" s="3">
         <v>16</v>
       </c>
-      <c r="S3" s="1">
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
         <v>32</v>
       </c>
-      <c r="T3" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="38">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
         <v>16</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="I4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="1">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="E7" s="3">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
         <v>32</v>
       </c>
-      <c r="M4" s="1">
-        <v>64</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="38">
-        <v>16</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="21">
-        <v>3987</v>
-      </c>
-      <c r="K5" s="21">
-        <v>755.5</v>
-      </c>
-      <c r="L5" s="21">
-        <v>169.8</v>
-      </c>
-      <c r="M5" s="21">
-        <v>20</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
         <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8">
-        <v>1823.16</v>
-      </c>
-      <c r="D8">
-        <v>1608.77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="C8" s="32">
+        <v>4496.3</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1698.8</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1820.4</v>
+      </c>
+      <c r="F8" s="32">
+        <v>2171.1</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
       <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="C9">
-        <v>1822.16</v>
-      </c>
-      <c r="D9">
-        <v>1607.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="C9" s="32">
+        <v>4496.3</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1698.7</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1820.1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>2170.9</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
       <c r="B10" t="s">
         <v>133</v>
       </c>
-      <c r="C10">
-        <v>322.06</v>
-      </c>
-      <c r="D10">
-        <v>219.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="C10" s="32">
+        <v>440.3</v>
+      </c>
+      <c r="D10" s="32">
+        <v>357.3</v>
+      </c>
+      <c r="E10" s="32">
+        <v>463.8</v>
+      </c>
+      <c r="F10" s="32">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
       <c r="B11" t="s">
         <v>134</v>
       </c>
-      <c r="C11">
-        <v>16103</v>
-      </c>
-      <c r="D11">
-        <v>10972.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="C11" s="32">
+        <v>22015</v>
+      </c>
+      <c r="D11" s="32">
+        <v>17865</v>
+      </c>
+      <c r="E11" s="32">
+        <v>23190</v>
+      </c>
+      <c r="F11" s="32">
+        <v>32365</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="42"/>
       <c r="B12" t="s">
         <v>135</v>
       </c>
-      <c r="C12">
-        <v>2213.62</v>
-      </c>
-      <c r="D12">
-        <v>1800.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="C12" s="32">
+        <v>3457.5</v>
+      </c>
+      <c r="D12" s="32">
+        <v>3044.8</v>
+      </c>
+      <c r="E12" s="32">
+        <v>4332</v>
+      </c>
+      <c r="F12" s="32">
+        <v>6220.7</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="42"/>
       <c r="B13" t="s">
         <v>136</v>
       </c>
-      <c r="C13">
-        <v>2370.33</v>
-      </c>
-      <c r="D13">
-        <v>2058.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="C13" s="32">
+        <v>5195.8</v>
+      </c>
+      <c r="D13" s="32">
+        <v>2289</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2857.1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>3969</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="42"/>
       <c r="B14" t="s">
         <v>137</v>
       </c>
-      <c r="C14">
-        <v>2699.68</v>
-      </c>
-      <c r="D14">
-        <v>2279.88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="C14" s="32">
+        <v>5651.3</v>
+      </c>
+      <c r="D14" s="32">
+        <v>2690.5</v>
+      </c>
+      <c r="E14" s="32">
+        <v>3477.9</v>
+      </c>
+      <c r="F14" s="32">
+        <v>4937.3</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="42"/>
       <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C15">
-        <v>7.29</v>
-      </c>
-      <c r="D15">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="C15" s="32">
+        <v>15.2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>44.1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="F15" s="32">
+        <v>320.8</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="42"/>
       <c r="B16" t="s">
         <v>139</v>
       </c>
-      <c r="C16">
-        <v>329.35</v>
-      </c>
-      <c r="D16">
-        <v>221.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="C16" s="32">
+        <v>455.5</v>
+      </c>
+      <c r="D16" s="32">
+        <v>401.5</v>
+      </c>
+      <c r="E16" s="32">
+        <v>620.79999999999995</v>
+      </c>
+      <c r="F16" s="32">
+        <v>968.3</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
       <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="C17">
-        <v>28.55</v>
-      </c>
-      <c r="D17">
-        <v>28.37</v>
-      </c>
-      <c r="U17" s="21"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
+      <c r="C17" s="32">
+        <v>54.4</v>
+      </c>
+      <c r="D17" s="32">
+        <v>103.1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>226.9</v>
+      </c>
+      <c r="F17" s="32">
+        <v>357.7</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="43"/>
       <c r="B18" t="s">
         <v>141</v>
       </c>
-      <c r="C18">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="D18">
-        <v>40.42</v>
-      </c>
-      <c r="U18" s="21"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C18" s="32">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D18" s="32">
+        <v>26.7</v>
+      </c>
+      <c r="E18" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="F18" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="C19">
-        <v>1005.46</v>
-      </c>
-      <c r="D19">
-        <v>889.71600000000001</v>
-      </c>
-      <c r="U19" s="21"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U20" s="21"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U21" s="21"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="U22" s="21"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="U23" s="21"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+      <c r="C19" s="32">
+        <v>2836.29</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1076.76</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1460.22</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1620.66</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8">
+        <v>32</v>
+      </c>
+      <c r="G22" s="8">
+        <v>40</v>
+      </c>
+      <c r="H22" s="8">
+        <v>48</v>
+      </c>
+      <c r="I22" s="8">
+        <v>56</v>
+      </c>
+      <c r="J22" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B24" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="L28" s="28">
+        <v>8</v>
+      </c>
+      <c r="M28" s="32">
+        <v>4496.3</v>
+      </c>
+      <c r="N28" s="32">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="O28" s="33">
+        <v>450</v>
+      </c>
+      <c r="P28" s="32">
+        <f t="shared" ref="P28:P39" si="0">O28*M28/1000</f>
+        <v>2023.335</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>700</v>
+      </c>
+      <c r="R28" s="35">
+        <f>Q28/P28</f>
+        <v>0.34596347119977661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="L29" s="28">
+        <v>16</v>
+      </c>
+      <c r="M29" s="32">
+        <v>1698.8</v>
+      </c>
+      <c r="N29" s="32">
+        <v>26.7</v>
+      </c>
+      <c r="O29" s="32">
+        <f t="shared" ref="O29:O39" si="1">O28*1.1</f>
+        <v>495.00000000000006</v>
+      </c>
+      <c r="P29" s="32">
+        <f t="shared" si="0"/>
+        <v>840.90600000000006</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>700</v>
+      </c>
+      <c r="R29" s="35">
+        <f t="shared" ref="R29:R39" si="2">Q29/P29</f>
+        <v>0.83243549219532265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="L30" s="28">
+        <v>24</v>
+      </c>
+      <c r="M30" s="32">
+        <v>1820.4</v>
+      </c>
+      <c r="N30" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="O30" s="32">
+        <f t="shared" si="1"/>
+        <v>544.50000000000011</v>
+      </c>
+      <c r="P30" s="32">
+        <f t="shared" si="0"/>
+        <v>991.20780000000025</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>700</v>
+      </c>
+      <c r="R30" s="35">
+        <f t="shared" si="2"/>
+        <v>0.70620913192975254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="L31" s="28">
+        <v>32</v>
+      </c>
+      <c r="M31" s="32">
+        <v>2171.1</v>
+      </c>
+      <c r="N31" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="O31" s="32">
+        <f t="shared" si="1"/>
+        <v>598.95000000000016</v>
+      </c>
+      <c r="P31" s="32">
+        <f t="shared" si="0"/>
+        <v>1300.3803450000003</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>700</v>
+      </c>
+      <c r="R31" s="35">
+        <f t="shared" si="2"/>
+        <v>0.53830404519071673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="P40" s="32"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="P41" s="32"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="P42" s="32"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="U24" s="21"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+      <c r="F48" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="4">
+      <c r="F49" s="29">
         <v>218</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="U25" s="21"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="4">
+      <c r="F50" s="29">
         <v>50</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="3">
+      <c r="F51" s="28">
         <v>8</v>
       </c>
-      <c r="D27" s="3">
+      <c r="G51" s="28">
         <v>16</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H51" s="28">
         <v>24</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I51" s="28">
         <v>32</v>
       </c>
-      <c r="G27" s="3">
-        <v>40</v>
-      </c>
-      <c r="H27" s="3">
-        <v>48</v>
-      </c>
-      <c r="I27" s="3">
-        <v>56</v>
-      </c>
-      <c r="J27" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="3">
+      <c r="F52" s="28">
         <v>8</v>
       </c>
-      <c r="D28" s="3">
+      <c r="G52" s="28">
         <v>16</v>
       </c>
-      <c r="E28" s="3">
+      <c r="H52" s="28">
         <v>24</v>
       </c>
-      <c r="F28" s="3">
+      <c r="I52" s="28">
         <v>32</v>
       </c>
-      <c r="G28" s="3">
-        <v>40</v>
-      </c>
-      <c r="H28" s="3">
-        <v>48</v>
-      </c>
-      <c r="I28" s="3">
-        <v>56</v>
-      </c>
-      <c r="J28" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="21">
-        <v>3987</v>
-      </c>
-      <c r="D29" s="21">
-        <v>755.5</v>
-      </c>
-      <c r="E29" s="21">
-        <v>395.9</v>
-      </c>
-      <c r="F29" s="21">
-        <v>169.8</v>
-      </c>
-      <c r="G29" s="21">
-        <v>99.3</v>
-      </c>
-      <c r="H29" s="21">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="I29" s="21">
-        <v>28.6</v>
-      </c>
-      <c r="J29" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="21">
-        <v>3986</v>
-      </c>
-      <c r="D30" s="21">
-        <v>754.5</v>
-      </c>
-      <c r="E30" s="21">
-        <v>394.9</v>
-      </c>
-      <c r="F30" s="21">
-        <v>168.8</v>
-      </c>
-      <c r="G30" s="21">
-        <v>98.3</v>
-      </c>
-      <c r="H30" s="21">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="I30" s="21">
-        <v>27.6</v>
-      </c>
-      <c r="J30" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="21">
-        <v>226.9</v>
-      </c>
-      <c r="D31" s="21">
-        <v>88</v>
-      </c>
-      <c r="E31" s="21">
-        <v>77</v>
-      </c>
-      <c r="F31" s="21">
-        <v>53.4</v>
-      </c>
-      <c r="G31" s="21">
-        <v>47.9</v>
-      </c>
-      <c r="H31" s="21">
-        <v>20.2</v>
-      </c>
-      <c r="I31" s="21">
-        <v>19</v>
-      </c>
-      <c r="J31" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="21">
-        <v>11345</v>
-      </c>
-      <c r="D32" s="21">
-        <v>4400</v>
-      </c>
-      <c r="E32" s="21">
-        <v>3850</v>
-      </c>
-      <c r="F32" s="21">
-        <v>2670</v>
-      </c>
-      <c r="G32" s="21">
-        <v>2395</v>
-      </c>
-      <c r="H32" s="21">
-        <v>1010</v>
-      </c>
-      <c r="I32" s="21">
-        <v>950</v>
-      </c>
-      <c r="J32" s="21">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="21">
-        <v>1896.2</v>
-      </c>
-      <c r="D33" s="21">
-        <v>715.9</v>
-      </c>
-      <c r="E33" s="21">
-        <v>629.6</v>
-      </c>
-      <c r="F33" s="21">
-        <v>448.7</v>
-      </c>
-      <c r="G33" s="21">
-        <v>400.8</v>
-      </c>
-      <c r="H33" s="21">
-        <v>191.1</v>
-      </c>
-      <c r="I33" s="21">
-        <v>168.4</v>
-      </c>
-      <c r="J33" s="21">
-        <v>128.19999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="21">
-        <v>4469.3999999999996</v>
-      </c>
-      <c r="D34" s="21">
-        <v>969.5</v>
-      </c>
-      <c r="E34" s="21">
-        <v>611.20000000000005</v>
-      </c>
-      <c r="F34" s="21">
-        <v>348.9</v>
-      </c>
-      <c r="G34" s="21">
-        <v>265.39999999999998</v>
-      </c>
-      <c r="H34" s="21">
-        <v>118.1</v>
-      </c>
-      <c r="I34" s="21">
-        <v>101.5</v>
-      </c>
-      <c r="J34" s="21">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="21">
-        <v>4697.5</v>
-      </c>
-      <c r="D35" s="21">
-        <v>1058.2</v>
-      </c>
-      <c r="E35" s="21">
-        <v>689</v>
-      </c>
-      <c r="F35" s="21">
-        <v>402.8</v>
-      </c>
-      <c r="G35" s="21">
-        <v>315.2</v>
-      </c>
-      <c r="H35" s="21">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="I35" s="21">
-        <v>121.4</v>
-      </c>
-      <c r="J35" s="21">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="21">
-        <v>1.9</v>
-      </c>
-      <c r="H36" s="21">
-        <v>1</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="J36" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="21">
-        <v>228.1</v>
-      </c>
-      <c r="D37" s="21">
-        <v>88.7</v>
-      </c>
-      <c r="E37" s="21">
-        <v>77.8</v>
-      </c>
-      <c r="F37" s="21">
-        <v>53.9</v>
-      </c>
-      <c r="G37" s="21">
-        <v>49.8</v>
-      </c>
-      <c r="H37" s="21">
-        <v>21.2</v>
-      </c>
-      <c r="I37" s="21">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="J37" s="21">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
-      <c r="B38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="21">
-        <v>14.2</v>
-      </c>
-      <c r="D38" s="21">
-        <v>7.2</v>
-      </c>
-      <c r="E38" s="21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F38" s="21">
-        <v>8.1</v>
-      </c>
-      <c r="G38" s="21">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H38" s="21">
-        <v>3.8</v>
-      </c>
-      <c r="I38" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="J38" s="21">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="21">
-        <v>89.4</v>
-      </c>
-      <c r="D39" s="21">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E39" s="21">
-        <v>19.3</v>
-      </c>
-      <c r="F39" s="21">
-        <v>12.1</v>
-      </c>
-      <c r="G39" s="21">
-        <v>7.8</v>
-      </c>
-      <c r="H39" s="21">
-        <v>5</v>
-      </c>
-      <c r="I39" s="21">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J39" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="F53" s="32">
+        <v>4496.3</v>
+      </c>
+      <c r="G53" s="32">
+        <v>1698.8</v>
+      </c>
+      <c r="H53" s="32">
+        <v>1820.4</v>
+      </c>
+      <c r="I53" s="32">
+        <v>2171.1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="21">
-        <v>2389.85</v>
-      </c>
-      <c r="D40" s="21">
-        <v>404.363</v>
-      </c>
-      <c r="E40" s="21">
-        <v>197.69200000000001</v>
-      </c>
-      <c r="F40" s="21">
-        <v>87.301599999999993</v>
-      </c>
-      <c r="G40" s="21">
-        <v>55.094099999999997</v>
-      </c>
-      <c r="H40" s="21">
-        <v>17.408200000000001</v>
-      </c>
-      <c r="I40" s="21">
-        <v>15.0593</v>
-      </c>
-      <c r="J40" s="21">
-        <v>10.156599999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J44" s="21"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J45" s="21"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="F54" s="32">
+        <v>10574.3</v>
+      </c>
+      <c r="G54" s="32">
+        <v>4749.2</v>
+      </c>
+      <c r="H54" s="32">
+        <v>10955.1</v>
+      </c>
+      <c r="I54" s="32">
+        <v>103339</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A29:A39"/>
+  <mergeCells count="2">
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A8:A18"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V35"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.375" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="9">
+        <v>218</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8">
+        <v>48</v>
+      </c>
+      <c r="I5" s="8">
+        <v>56</v>
+      </c>
+      <c r="J5" s="8">
+        <v>64</v>
+      </c>
+      <c r="K5" s="8">
+        <v>72</v>
+      </c>
+      <c r="L5" s="8">
+        <v>80</v>
+      </c>
+      <c r="M5" s="8">
+        <v>88</v>
+      </c>
+      <c r="N5" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8">
+        <v>56</v>
+      </c>
+      <c r="J6" s="8">
+        <v>64</v>
+      </c>
+      <c r="K6" s="8">
+        <v>72</v>
+      </c>
+      <c r="L6" s="8">
+        <v>80</v>
+      </c>
+      <c r="M6" s="8">
+        <v>88</v>
+      </c>
+      <c r="N6" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
+      <c r="B11" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="42"/>
+      <c r="B12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="42"/>
+      <c r="B14" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="42"/>
+      <c r="B15" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="42"/>
+      <c r="B16" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" s="43"/>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8">
+        <v>16</v>
+      </c>
+      <c r="E23" s="8">
+        <v>24</v>
+      </c>
+      <c r="F23" s="8">
+        <v>32</v>
+      </c>
+      <c r="G23" s="8">
+        <v>40</v>
+      </c>
+      <c r="H23" s="8">
+        <v>48</v>
+      </c>
+      <c r="I23" s="8">
+        <v>56</v>
+      </c>
+      <c r="J23" s="8">
+        <v>64</v>
+      </c>
+      <c r="K23" s="8">
+        <v>72</v>
+      </c>
+      <c r="L23" s="8">
+        <v>80</v>
+      </c>
+      <c r="M23" s="8">
+        <v>88</v>
+      </c>
+      <c r="N23" s="8">
+        <v>96</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="V23" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B24" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="P24" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>55756</v>
+      </c>
+      <c r="R24" s="25">
+        <v>161.1</v>
+      </c>
+      <c r="S24" s="33">
+        <v>450</v>
+      </c>
+      <c r="T24" s="25">
+        <f t="shared" ref="T24:T35" si="0">S24*Q24/1000</f>
+        <v>25090.2</v>
+      </c>
+      <c r="U24" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V24" s="35">
+        <f>U24/T24</f>
+        <v>0.49820248543255929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="P25" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>19236</v>
+      </c>
+      <c r="R25" s="25">
+        <v>63.2</v>
+      </c>
+      <c r="S25" s="25">
+        <f t="shared" ref="S25:S35" si="1">S24*1.1</f>
+        <v>495.00000000000006</v>
+      </c>
+      <c r="T25" s="25">
+        <f t="shared" si="0"/>
+        <v>9521.8200000000015</v>
+      </c>
+      <c r="U25" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V25" s="35">
+        <f t="shared" ref="V25:V35" si="2">U25/T25</f>
+        <v>1.3127742385384304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="P26" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>6365.2</v>
+      </c>
+      <c r="R26" s="25">
+        <v>55.6</v>
+      </c>
+      <c r="S26" s="25">
+        <f t="shared" si="1"/>
+        <v>544.50000000000011</v>
+      </c>
+      <c r="T26" s="25">
+        <f t="shared" si="0"/>
+        <v>3465.8514000000009</v>
+      </c>
+      <c r="U26" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V26" s="35">
+        <f t="shared" si="2"/>
+        <v>3.6066174100828432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B27" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="P27" s="8">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>1629.2</v>
+      </c>
+      <c r="R27" s="25">
+        <v>33.5</v>
+      </c>
+      <c r="S27" s="25">
+        <f t="shared" si="1"/>
+        <v>598.95000000000016</v>
+      </c>
+      <c r="T27" s="25">
+        <f t="shared" si="0"/>
+        <v>975.80934000000036</v>
+      </c>
+      <c r="U27" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V27" s="35">
+        <f t="shared" si="2"/>
+        <v>12.809879438128759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="P28" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>981.2</v>
+      </c>
+      <c r="R28" s="25">
+        <v>24.2</v>
+      </c>
+      <c r="S28" s="25">
+        <f t="shared" si="1"/>
+        <v>658.84500000000025</v>
+      </c>
+      <c r="T28" s="25">
+        <f t="shared" si="0"/>
+        <v>646.45871400000021</v>
+      </c>
+      <c r="U28" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V28" s="35">
+        <f t="shared" si="2"/>
+        <v>19.336114943297051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="P29" s="8">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>609.6</v>
+      </c>
+      <c r="R29" s="25">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S29" s="25">
+        <f t="shared" si="1"/>
+        <v>724.72950000000037</v>
+      </c>
+      <c r="T29" s="25">
+        <f t="shared" si="0"/>
+        <v>441.79510320000026</v>
+      </c>
+      <c r="U29" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V29" s="35">
+        <f t="shared" si="2"/>
+        <v>28.293659004955654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="P30" s="8">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>346.5</v>
+      </c>
+      <c r="R30" s="25">
+        <v>14.5</v>
+      </c>
+      <c r="S30" s="25">
+        <f t="shared" si="1"/>
+        <v>797.20245000000045</v>
+      </c>
+      <c r="T30" s="25">
+        <f t="shared" si="0"/>
+        <v>276.23064892500014</v>
+      </c>
+      <c r="U30" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V30" s="35">
+        <f t="shared" si="2"/>
+        <v>45.252038644683111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="P31" s="8">
+        <v>64</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>246</v>
+      </c>
+      <c r="R31" s="25">
+        <v>11.7</v>
+      </c>
+      <c r="S31" s="25">
+        <f t="shared" si="1"/>
+        <v>876.92269500000054</v>
+      </c>
+      <c r="T31" s="25">
+        <f t="shared" si="0"/>
+        <v>215.72298297000012</v>
+      </c>
+      <c r="U31" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V31" s="35">
+        <f t="shared" si="2"/>
+        <v>57.944683630386912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="P32" s="8">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>166.2</v>
+      </c>
+      <c r="R32" s="25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S32" s="25">
+        <f t="shared" si="1"/>
+        <v>964.61496450000072</v>
+      </c>
+      <c r="T32" s="25">
+        <f t="shared" si="0"/>
+        <v>160.31900709990009</v>
+      </c>
+      <c r="U32" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V32" s="35">
+        <f t="shared" si="2"/>
+        <v>77.969544760284322</v>
+      </c>
+    </row>
+    <row r="33" spans="16:22" x14ac:dyDescent="0.15">
+      <c r="P33" s="8">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>87.9</v>
+      </c>
+      <c r="R33" s="25">
+        <v>7.2</v>
+      </c>
+      <c r="S33" s="25">
+        <f t="shared" si="1"/>
+        <v>1061.0764609500009</v>
+      </c>
+      <c r="T33" s="25">
+        <f t="shared" si="0"/>
+        <v>93.268620917505075</v>
+      </c>
+      <c r="U33" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V33" s="35">
+        <f t="shared" si="2"/>
+        <v>134.02149487185076</v>
+      </c>
+    </row>
+    <row r="34" spans="16:22" x14ac:dyDescent="0.15">
+      <c r="P34" s="8">
+        <v>88</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>56</v>
+      </c>
+      <c r="R34" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" si="1"/>
+        <v>1167.1841070450012</v>
+      </c>
+      <c r="T34" s="25">
+        <f t="shared" si="0"/>
+        <v>65.362309994520061</v>
+      </c>
+      <c r="U34" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V34" s="35">
+        <f t="shared" si="2"/>
+        <v>191.24171102655328</v>
+      </c>
+    </row>
+    <row r="35" spans="16:22" x14ac:dyDescent="0.15">
+      <c r="P35" s="8">
+        <v>96</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="R35" s="25">
+        <v>5</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" si="1"/>
+        <v>1283.9025177495014</v>
+      </c>
+      <c r="T35" s="25">
+        <f t="shared" si="0"/>
+        <v>52.383222724179653</v>
+      </c>
+      <c r="U35" s="25">
+        <v>12500</v>
+      </c>
+      <c r="V35" s="35">
+        <f t="shared" si="2"/>
+        <v>238.62602088874738</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>